--- a/Foundation/org.egovframe.rte.fdl.excel/testdata/testWriteExcelFileAttribute.xlsx
+++ b/Foundation/org.egovframe.rte.fdl.excel/testdata/testWriteExcelFileAttribute.xlsx
@@ -68,7 +68,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="true" applyAlignment="true" applyFill="true">
       <alignment wrapText="true" horizontal="right"/>
     </xf>
   </cellXfs>
@@ -77,7 +77,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -85,11 +85,7 @@
   <cols>
     <col min="1" max="1" style="1" width="30.0" customWidth="false"/>
   </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
